--- a/hasil/xls/sampel215052017.xlsx
+++ b/hasil/xls/sampel215052017.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Skripsi Baru\Skripsi\hasil\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
@@ -11,15 +16,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,13 +561,49 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Waktu best_guess pada setiap hari</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -732,6 +772,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-335C-4ADD-9E32-F0564DC1385E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -901,6 +947,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-335C-4ADD-9E32-F0564DC1385E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1070,6 +1122,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-335C-4ADD-9E32-F0564DC1385E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1239,6 +1297,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-335C-4ADD-9E32-F0564DC1385E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1408,6 +1472,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-335C-4ADD-9E32-F0564DC1385E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1577,6 +1647,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-335C-4ADD-9E32-F0564DC1385E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1746,8 +1822,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-335C-4ADD-9E32-F0564DC1385E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="93349760"/>
         <c:axId val="93351296"/>
       </c:lineChart>
@@ -1756,23 +1847,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93351296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="93351296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93349760"/>
         <c:crosses val="autoZero"/>
@@ -1782,8 +1880,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1794,13 +1895,49 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Waktu masing-masing model dalam seminggu</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2833,6 +2970,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EA0-4611-A607-72E010EDDC2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3353,6 +3496,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3EA0-4611-A607-72E010EDDC2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3873,8 +4022,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3EA0-4611-A607-72E010EDDC2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="93454720"/>
         <c:axId val="93456256"/>
       </c:lineChart>
@@ -3883,23 +4047,33 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
         <c:crossAx val="93456256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="93456256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93454720"/>
         <c:crosses val="autoZero"/>
@@ -3909,8 +4083,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3921,13 +4098,44 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Senin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4096,6 +4304,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D126-4653-9778-A21093E5D8B5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4265,6 +4479,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D126-4653-9778-A21093E5D8B5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4434,8 +4654,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D126-4653-9778-A21093E5D8B5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="93136000"/>
         <c:axId val="93137536"/>
       </c:lineChart>
@@ -4444,23 +4679,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93137536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="93137536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93136000"/>
         <c:crosses val="autoZero"/>
@@ -4470,8 +4712,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4482,13 +4727,44 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Selasa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4657,6 +4933,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0AF-4791-9A69-A26EA02A7F2B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4826,6 +5108,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0AF-4791-9A69-A26EA02A7F2B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4914,8 +5202,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F0AF-4791-9A69-A26EA02A7F2B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="93178880"/>
         <c:axId val="93188864"/>
       </c:lineChart>
@@ -4924,23 +5227,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93188864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="93188864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93178880"/>
         <c:crosses val="autoZero"/>
@@ -4950,8 +5260,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4962,13 +5275,44 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rabu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5137,6 +5481,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AA3-43BB-B5FC-111A95FFAB78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5306,6 +5656,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AA3-43BB-B5FC-111A95FFAB78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5475,8 +5831,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AA3-43BB-B5FC-111A95FFAB78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="93226880"/>
         <c:axId val="93228416"/>
       </c:lineChart>
@@ -5485,23 +5856,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93228416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="93228416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93226880"/>
         <c:crosses val="autoZero"/>
@@ -5511,8 +5889,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5523,13 +5904,44 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kamis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5698,6 +6110,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C39-44E7-954C-3DC4418911C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5867,6 +6285,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C39-44E7-954C-3DC4418911C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6036,8 +6460,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C39-44E7-954C-3DC4418911C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="93278592"/>
         <c:axId val="93280128"/>
       </c:lineChart>
@@ -6046,23 +6485,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93280128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="93280128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93278592"/>
         <c:crosses val="autoZero"/>
@@ -6072,8 +6518,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6084,13 +6533,44 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Jumat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6259,6 +6739,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-029D-4BB9-87F3-532F0898C56D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6428,6 +6914,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-029D-4BB9-87F3-532F0898C56D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6597,8 +7089,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-029D-4BB9-87F3-532F0898C56D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="93330048"/>
         <c:axId val="93372800"/>
       </c:lineChart>
@@ -6607,23 +7114,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93372800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="93372800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93330048"/>
         <c:crosses val="autoZero"/>
@@ -6633,8 +7147,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6645,13 +7162,44 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sabtu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6820,6 +7368,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B52-4D36-8748-B8C6551B7F79}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6989,6 +7543,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1B52-4D36-8748-B8C6551B7F79}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7158,8 +7718,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1B52-4D36-8748-B8C6551B7F79}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="93570176"/>
         <c:axId val="93571712"/>
       </c:lineChart>
@@ -7168,23 +7743,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93571712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="93571712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="93570176"/>
         <c:crosses val="autoZero"/>
@@ -7194,8 +7776,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7206,13 +7791,44 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minggu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7381,6 +7997,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5047-4E15-BE62-4CCFA01046C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7550,6 +8172,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5047-4E15-BE62-4CCFA01046C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7719,8 +8347,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5047-4E15-BE62-4CCFA01046C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="142744960"/>
         <c:axId val="142750848"/>
       </c:lineChart>
@@ -7729,23 +8372,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="142750848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="142750848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="142744960"/>
         <c:crosses val="autoZero"/>
@@ -7755,8 +8405,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8042,7 +8695,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="sampel108052017"/>
@@ -9391,1868 +10044,6 @@
           </cell>
           <cell r="F168">
             <v>30</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="sampel115052017"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1">
-            <v>33</v>
-          </cell>
-          <cell r="D1">
-            <v>28</v>
-          </cell>
-          <cell r="E1">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2">
-            <v>32</v>
-          </cell>
-          <cell r="D2">
-            <v>29</v>
-          </cell>
-          <cell r="E2">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>32</v>
-          </cell>
-          <cell r="D3">
-            <v>29</v>
-          </cell>
-          <cell r="E3">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>31</v>
-          </cell>
-          <cell r="D4">
-            <v>28</v>
-          </cell>
-          <cell r="E4">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>31</v>
-          </cell>
-          <cell r="D5">
-            <v>27</v>
-          </cell>
-          <cell r="E5">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>32</v>
-          </cell>
-          <cell r="D6">
-            <v>28</v>
-          </cell>
-          <cell r="E6">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>36</v>
-          </cell>
-          <cell r="D7">
-            <v>30</v>
-          </cell>
-          <cell r="E7">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>39</v>
-          </cell>
-          <cell r="D8">
-            <v>31</v>
-          </cell>
-          <cell r="E8">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>39</v>
-          </cell>
-          <cell r="D9">
-            <v>32</v>
-          </cell>
-          <cell r="E9">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>40</v>
-          </cell>
-          <cell r="D10">
-            <v>33</v>
-          </cell>
-          <cell r="E10">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>43</v>
-          </cell>
-          <cell r="D11">
-            <v>35</v>
-          </cell>
-          <cell r="E11">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>44</v>
-          </cell>
-          <cell r="D12">
-            <v>36</v>
-          </cell>
-          <cell r="E12">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>44</v>
-          </cell>
-          <cell r="D13">
-            <v>35</v>
-          </cell>
-          <cell r="E13">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>45</v>
-          </cell>
-          <cell r="D14">
-            <v>36</v>
-          </cell>
-          <cell r="E14">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>48</v>
-          </cell>
-          <cell r="D15">
-            <v>37</v>
-          </cell>
-          <cell r="E15">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>49</v>
-          </cell>
-          <cell r="D16">
-            <v>38</v>
-          </cell>
-          <cell r="E16">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>49</v>
-          </cell>
-          <cell r="D17">
-            <v>39</v>
-          </cell>
-          <cell r="E17">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>53</v>
-          </cell>
-          <cell r="D18">
-            <v>42</v>
-          </cell>
-          <cell r="E18">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>46</v>
-          </cell>
-          <cell r="D19">
-            <v>37</v>
-          </cell>
-          <cell r="E19">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>43</v>
-          </cell>
-          <cell r="D20">
-            <v>35</v>
-          </cell>
-          <cell r="E20">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>41</v>
-          </cell>
-          <cell r="D21">
-            <v>34</v>
-          </cell>
-          <cell r="E21">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>40</v>
-          </cell>
-          <cell r="D22">
-            <v>33</v>
-          </cell>
-          <cell r="E22">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>38</v>
-          </cell>
-          <cell r="D23">
-            <v>31</v>
-          </cell>
-          <cell r="E23">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>35</v>
-          </cell>
-          <cell r="D24">
-            <v>30</v>
-          </cell>
-          <cell r="E24">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>34</v>
-          </cell>
-          <cell r="D25">
-            <v>29</v>
-          </cell>
-          <cell r="E25">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>32</v>
-          </cell>
-          <cell r="D26">
-            <v>28</v>
-          </cell>
-          <cell r="E26">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>31</v>
-          </cell>
-          <cell r="D27">
-            <v>29</v>
-          </cell>
-          <cell r="E27">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>31</v>
-          </cell>
-          <cell r="D28">
-            <v>28</v>
-          </cell>
-          <cell r="E28">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>31</v>
-          </cell>
-          <cell r="D29">
-            <v>28</v>
-          </cell>
-          <cell r="E29">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>32</v>
-          </cell>
-          <cell r="D30">
-            <v>28</v>
-          </cell>
-          <cell r="E30">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>36</v>
-          </cell>
-          <cell r="D31">
-            <v>30</v>
-          </cell>
-          <cell r="E31">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>39</v>
-          </cell>
-          <cell r="D32">
-            <v>32</v>
-          </cell>
-          <cell r="E32">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>39</v>
-          </cell>
-          <cell r="D33">
-            <v>32</v>
-          </cell>
-          <cell r="E33">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>40</v>
-          </cell>
-          <cell r="D34">
-            <v>33</v>
-          </cell>
-          <cell r="E34">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>43</v>
-          </cell>
-          <cell r="D35">
-            <v>34</v>
-          </cell>
-          <cell r="E35">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>44</v>
-          </cell>
-          <cell r="D36">
-            <v>35</v>
-          </cell>
-          <cell r="E36">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>45</v>
-          </cell>
-          <cell r="D37">
-            <v>36</v>
-          </cell>
-          <cell r="E37">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>46</v>
-          </cell>
-          <cell r="D38">
-            <v>37</v>
-          </cell>
-          <cell r="E38">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>48</v>
-          </cell>
-          <cell r="D39">
-            <v>38</v>
-          </cell>
-          <cell r="E39">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>48</v>
-          </cell>
-          <cell r="D40">
-            <v>38</v>
-          </cell>
-          <cell r="E40">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>50</v>
-          </cell>
-          <cell r="D41">
-            <v>39</v>
-          </cell>
-          <cell r="E41">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>54</v>
-          </cell>
-          <cell r="D42">
-            <v>42</v>
-          </cell>
-          <cell r="E42">
-            <v>79</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>46</v>
-          </cell>
-          <cell r="D43">
-            <v>38</v>
-          </cell>
-          <cell r="E43">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>44</v>
-          </cell>
-          <cell r="D44">
-            <v>36</v>
-          </cell>
-          <cell r="E44">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>42</v>
-          </cell>
-          <cell r="D45">
-            <v>35</v>
-          </cell>
-          <cell r="E45">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>41</v>
-          </cell>
-          <cell r="D46">
-            <v>34</v>
-          </cell>
-          <cell r="E46">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>38</v>
-          </cell>
-          <cell r="D47">
-            <v>32</v>
-          </cell>
-          <cell r="E47">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>35</v>
-          </cell>
-          <cell r="D48">
-            <v>30</v>
-          </cell>
-          <cell r="E48">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>34</v>
-          </cell>
-          <cell r="D49">
-            <v>29</v>
-          </cell>
-          <cell r="E49">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>33</v>
-          </cell>
-          <cell r="D50">
-            <v>29</v>
-          </cell>
-          <cell r="E50">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>32</v>
-          </cell>
-          <cell r="D51">
-            <v>29</v>
-          </cell>
-          <cell r="E51">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>31</v>
-          </cell>
-          <cell r="D52">
-            <v>28</v>
-          </cell>
-          <cell r="E52">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>30</v>
-          </cell>
-          <cell r="D53">
-            <v>28</v>
-          </cell>
-          <cell r="E53">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>33</v>
-          </cell>
-          <cell r="D54">
-            <v>29</v>
-          </cell>
-          <cell r="E54">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>36</v>
-          </cell>
-          <cell r="D55">
-            <v>30</v>
-          </cell>
-          <cell r="E55">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>39</v>
-          </cell>
-          <cell r="D56">
-            <v>32</v>
-          </cell>
-          <cell r="E56">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>40</v>
-          </cell>
-          <cell r="D57">
-            <v>32</v>
-          </cell>
-          <cell r="E57">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>41</v>
-          </cell>
-          <cell r="D58">
-            <v>33</v>
-          </cell>
-          <cell r="E58">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>44</v>
-          </cell>
-          <cell r="D59">
-            <v>35</v>
-          </cell>
-          <cell r="E59">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>44</v>
-          </cell>
-          <cell r="D60">
-            <v>35</v>
-          </cell>
-          <cell r="E60">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>44</v>
-          </cell>
-          <cell r="D61">
-            <v>36</v>
-          </cell>
-          <cell r="E61">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>47</v>
-          </cell>
-          <cell r="D62">
-            <v>37</v>
-          </cell>
-          <cell r="E62">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>48</v>
-          </cell>
-          <cell r="D63">
-            <v>38</v>
-          </cell>
-          <cell r="E63">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>50</v>
-          </cell>
-          <cell r="D64">
-            <v>39</v>
-          </cell>
-          <cell r="E64">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>50</v>
-          </cell>
-          <cell r="D65">
-            <v>40</v>
-          </cell>
-          <cell r="E65">
-            <v>79</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>54</v>
-          </cell>
-          <cell r="D66">
-            <v>43</v>
-          </cell>
-          <cell r="E66">
-            <v>82</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>48</v>
-          </cell>
-          <cell r="D67">
-            <v>39</v>
-          </cell>
-          <cell r="E67">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>44</v>
-          </cell>
-          <cell r="D68">
-            <v>36</v>
-          </cell>
-          <cell r="E68">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>43</v>
-          </cell>
-          <cell r="D69">
-            <v>35</v>
-          </cell>
-          <cell r="E69">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>41</v>
-          </cell>
-          <cell r="D70">
-            <v>34</v>
-          </cell>
-          <cell r="E70">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>38</v>
-          </cell>
-          <cell r="D71">
-            <v>32</v>
-          </cell>
-          <cell r="E71">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>35</v>
-          </cell>
-          <cell r="D72">
-            <v>30</v>
-          </cell>
-          <cell r="E72">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>34</v>
-          </cell>
-          <cell r="D73">
-            <v>29</v>
-          </cell>
-          <cell r="E73">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>33</v>
-          </cell>
-          <cell r="D74">
-            <v>29</v>
-          </cell>
-          <cell r="E74">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>32</v>
-          </cell>
-          <cell r="D75">
-            <v>28</v>
-          </cell>
-          <cell r="E75">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>32</v>
-          </cell>
-          <cell r="D76">
-            <v>29</v>
-          </cell>
-          <cell r="E76">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>31</v>
-          </cell>
-          <cell r="D77">
-            <v>28</v>
-          </cell>
-          <cell r="E77">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>33</v>
-          </cell>
-          <cell r="D78">
-            <v>29</v>
-          </cell>
-          <cell r="E78">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>37</v>
-          </cell>
-          <cell r="D79">
-            <v>30</v>
-          </cell>
-          <cell r="E79">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>39</v>
-          </cell>
-          <cell r="D80">
-            <v>32</v>
-          </cell>
-          <cell r="E80">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>40</v>
-          </cell>
-          <cell r="D81">
-            <v>33</v>
-          </cell>
-          <cell r="E81">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>41</v>
-          </cell>
-          <cell r="D82">
-            <v>33</v>
-          </cell>
-          <cell r="E82">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>44</v>
-          </cell>
-          <cell r="D83">
-            <v>35</v>
-          </cell>
-          <cell r="E83">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>45</v>
-          </cell>
-          <cell r="D84">
-            <v>36</v>
-          </cell>
-          <cell r="E84">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>45</v>
-          </cell>
-          <cell r="D85">
-            <v>36</v>
-          </cell>
-          <cell r="E85">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>47</v>
-          </cell>
-          <cell r="D86">
-            <v>37</v>
-          </cell>
-          <cell r="E86">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>49</v>
-          </cell>
-          <cell r="D87">
-            <v>39</v>
-          </cell>
-          <cell r="E87">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>49</v>
-          </cell>
-          <cell r="D88">
-            <v>39</v>
-          </cell>
-          <cell r="E88">
-            <v>72</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>50</v>
-          </cell>
-          <cell r="D89">
-            <v>40</v>
-          </cell>
-          <cell r="E89">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>53</v>
-          </cell>
-          <cell r="D90">
-            <v>42</v>
-          </cell>
-          <cell r="E90">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>46</v>
-          </cell>
-          <cell r="D91">
-            <v>37</v>
-          </cell>
-          <cell r="E91">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>45</v>
-          </cell>
-          <cell r="D92">
-            <v>37</v>
-          </cell>
-          <cell r="E92">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>43</v>
-          </cell>
-          <cell r="D93">
-            <v>35</v>
-          </cell>
-          <cell r="E93">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>42</v>
-          </cell>
-          <cell r="D94">
-            <v>34</v>
-          </cell>
-          <cell r="E94">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>38</v>
-          </cell>
-          <cell r="D95">
-            <v>32</v>
-          </cell>
-          <cell r="E95">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>35</v>
-          </cell>
-          <cell r="D96">
-            <v>30</v>
-          </cell>
-          <cell r="E96">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>33</v>
-          </cell>
-          <cell r="D97">
-            <v>29</v>
-          </cell>
-          <cell r="E97">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>33</v>
-          </cell>
-          <cell r="D98">
-            <v>28</v>
-          </cell>
-          <cell r="E98">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99">
-            <v>32</v>
-          </cell>
-          <cell r="D99">
-            <v>29</v>
-          </cell>
-          <cell r="E99">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>32</v>
-          </cell>
-          <cell r="D100">
-            <v>28</v>
-          </cell>
-          <cell r="E100">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>31</v>
-          </cell>
-          <cell r="D101">
-            <v>28</v>
-          </cell>
-          <cell r="E101">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102">
-            <v>33</v>
-          </cell>
-          <cell r="D102">
-            <v>29</v>
-          </cell>
-          <cell r="E102">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="C103">
-            <v>36</v>
-          </cell>
-          <cell r="D103">
-            <v>30</v>
-          </cell>
-          <cell r="E103">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="C104">
-            <v>39</v>
-          </cell>
-          <cell r="D104">
-            <v>32</v>
-          </cell>
-          <cell r="E104">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="C105">
-            <v>40</v>
-          </cell>
-          <cell r="D105">
-            <v>33</v>
-          </cell>
-          <cell r="E105">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="C106">
-            <v>41</v>
-          </cell>
-          <cell r="D106">
-            <v>33</v>
-          </cell>
-          <cell r="E106">
-            <v>59</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="C107">
-            <v>44</v>
-          </cell>
-          <cell r="D107">
-            <v>35</v>
-          </cell>
-          <cell r="E107">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="C108">
-            <v>46</v>
-          </cell>
-          <cell r="D108">
-            <v>37</v>
-          </cell>
-          <cell r="E108">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="C109">
-            <v>41</v>
-          </cell>
-          <cell r="D109">
-            <v>33</v>
-          </cell>
-          <cell r="E109">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="C110">
-            <v>46</v>
-          </cell>
-          <cell r="D110">
-            <v>36</v>
-          </cell>
-          <cell r="E110">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="C111">
-            <v>50</v>
-          </cell>
-          <cell r="D111">
-            <v>39</v>
-          </cell>
-          <cell r="E111">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="C112">
-            <v>49</v>
-          </cell>
-          <cell r="D112">
-            <v>39</v>
-          </cell>
-          <cell r="E112">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="C113">
-            <v>52</v>
-          </cell>
-          <cell r="D113">
-            <v>40</v>
-          </cell>
-          <cell r="E113">
-            <v>82</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="C114">
-            <v>57</v>
-          </cell>
-          <cell r="D114">
-            <v>44</v>
-          </cell>
-          <cell r="E114">
-            <v>85</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="C115">
-            <v>51</v>
-          </cell>
-          <cell r="D115">
-            <v>40</v>
-          </cell>
-          <cell r="E115">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="C116">
-            <v>48</v>
-          </cell>
-          <cell r="D116">
-            <v>38</v>
-          </cell>
-          <cell r="E116">
-            <v>69</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="C117">
-            <v>45</v>
-          </cell>
-          <cell r="D117">
-            <v>36</v>
-          </cell>
-          <cell r="E117">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="C118">
-            <v>44</v>
-          </cell>
-          <cell r="D118">
-            <v>36</v>
-          </cell>
-          <cell r="E118">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="C119">
-            <v>41</v>
-          </cell>
-          <cell r="D119">
-            <v>34</v>
-          </cell>
-          <cell r="E119">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="C120">
-            <v>37</v>
-          </cell>
-          <cell r="D120">
-            <v>31</v>
-          </cell>
-          <cell r="E120">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="C121">
-            <v>34</v>
-          </cell>
-          <cell r="D121">
-            <v>30</v>
-          </cell>
-          <cell r="E121">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="C122">
-            <v>34</v>
-          </cell>
-          <cell r="D122">
-            <v>29</v>
-          </cell>
-          <cell r="E122">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="C123">
-            <v>32</v>
-          </cell>
-          <cell r="D123">
-            <v>28</v>
-          </cell>
-          <cell r="E123">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="C124">
-            <v>32</v>
-          </cell>
-          <cell r="D124">
-            <v>28</v>
-          </cell>
-          <cell r="E124">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="C125">
-            <v>32</v>
-          </cell>
-          <cell r="D125">
-            <v>28</v>
-          </cell>
-          <cell r="E125">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="C126">
-            <v>33</v>
-          </cell>
-          <cell r="D126">
-            <v>28</v>
-          </cell>
-          <cell r="E126">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="C127">
-            <v>34</v>
-          </cell>
-          <cell r="D127">
-            <v>29</v>
-          </cell>
-          <cell r="E127">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="C128">
-            <v>36</v>
-          </cell>
-          <cell r="D128">
-            <v>30</v>
-          </cell>
-          <cell r="E128">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="C129">
-            <v>38</v>
-          </cell>
-          <cell r="D129">
-            <v>31</v>
-          </cell>
-          <cell r="E129">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="C130">
-            <v>40</v>
-          </cell>
-          <cell r="D130">
-            <v>33</v>
-          </cell>
-          <cell r="E130">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="C131">
-            <v>43</v>
-          </cell>
-          <cell r="D131">
-            <v>35</v>
-          </cell>
-          <cell r="E131">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="C132">
-            <v>44</v>
-          </cell>
-          <cell r="D132">
-            <v>35</v>
-          </cell>
-          <cell r="E132">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="C133">
-            <v>46</v>
-          </cell>
-          <cell r="D133">
-            <v>36</v>
-          </cell>
-          <cell r="E133">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="C134">
-            <v>48</v>
-          </cell>
-          <cell r="D134">
-            <v>38</v>
-          </cell>
-          <cell r="E134">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="C135">
-            <v>52</v>
-          </cell>
-          <cell r="D135">
-            <v>41</v>
-          </cell>
-          <cell r="E135">
-            <v>79</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="C136">
-            <v>50</v>
-          </cell>
-          <cell r="D136">
-            <v>40</v>
-          </cell>
-          <cell r="E136">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="C137">
-            <v>50</v>
-          </cell>
-          <cell r="D137">
-            <v>40</v>
-          </cell>
-          <cell r="E137">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="C138">
-            <v>51</v>
-          </cell>
-          <cell r="D138">
-            <v>41</v>
-          </cell>
-          <cell r="E138">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="C139">
-            <v>51</v>
-          </cell>
-          <cell r="D139">
-            <v>41</v>
-          </cell>
-          <cell r="E139">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="C140">
-            <v>52</v>
-          </cell>
-          <cell r="D140">
-            <v>42</v>
-          </cell>
-          <cell r="E140">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="C141">
-            <v>53</v>
-          </cell>
-          <cell r="D141">
-            <v>42</v>
-          </cell>
-          <cell r="E141">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="C142">
-            <v>51</v>
-          </cell>
-          <cell r="D142">
-            <v>41</v>
-          </cell>
-          <cell r="E142">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="C143">
-            <v>48</v>
-          </cell>
-          <cell r="D143">
-            <v>39</v>
-          </cell>
-          <cell r="E143">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="C144">
-            <v>41</v>
-          </cell>
-          <cell r="D144">
-            <v>35</v>
-          </cell>
-          <cell r="E144">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="C145">
-            <v>36</v>
-          </cell>
-          <cell r="D145">
-            <v>31</v>
-          </cell>
-          <cell r="E145">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="C146">
-            <v>34</v>
-          </cell>
-          <cell r="D146">
-            <v>29</v>
-          </cell>
-          <cell r="E146">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="C147">
-            <v>33</v>
-          </cell>
-          <cell r="D147">
-            <v>29</v>
-          </cell>
-          <cell r="E147">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="C148">
-            <v>32</v>
-          </cell>
-          <cell r="D148">
-            <v>29</v>
-          </cell>
-          <cell r="E148">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="C149">
-            <v>31</v>
-          </cell>
-          <cell r="D149">
-            <v>28</v>
-          </cell>
-          <cell r="E149">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="C150">
-            <v>33</v>
-          </cell>
-          <cell r="D150">
-            <v>29</v>
-          </cell>
-          <cell r="E150">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="C151">
-            <v>34</v>
-          </cell>
-          <cell r="D151">
-            <v>28</v>
-          </cell>
-          <cell r="E151">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="C152">
-            <v>35</v>
-          </cell>
-          <cell r="D152">
-            <v>29</v>
-          </cell>
-          <cell r="E152">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="C153">
-            <v>38</v>
-          </cell>
-          <cell r="D153">
-            <v>31</v>
-          </cell>
-          <cell r="E153">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="C154">
-            <v>40</v>
-          </cell>
-          <cell r="D154">
-            <v>33</v>
-          </cell>
-          <cell r="E154">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="C155">
-            <v>45</v>
-          </cell>
-          <cell r="D155">
-            <v>36</v>
-          </cell>
-          <cell r="E155">
-            <v>65</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="C156">
-            <v>47</v>
-          </cell>
-          <cell r="D156">
-            <v>37</v>
-          </cell>
-          <cell r="E156">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="C157">
-            <v>49</v>
-          </cell>
-          <cell r="D157">
-            <v>38</v>
-          </cell>
-          <cell r="E157">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="C158">
-            <v>51</v>
-          </cell>
-          <cell r="D158">
-            <v>40</v>
-          </cell>
-          <cell r="E158">
-            <v>76</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="C159">
-            <v>51</v>
-          </cell>
-          <cell r="D159">
-            <v>41</v>
-          </cell>
-          <cell r="E159">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="C160">
-            <v>51</v>
-          </cell>
-          <cell r="D160">
-            <v>41</v>
-          </cell>
-          <cell r="E160">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="C161">
-            <v>50</v>
-          </cell>
-          <cell r="D161">
-            <v>40</v>
-          </cell>
-          <cell r="E161">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="C162">
-            <v>50</v>
-          </cell>
-          <cell r="D162">
-            <v>41</v>
-          </cell>
-          <cell r="E162">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="C163">
-            <v>49</v>
-          </cell>
-          <cell r="D163">
-            <v>40</v>
-          </cell>
-          <cell r="E163">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="C164">
-            <v>48</v>
-          </cell>
-          <cell r="D164">
-            <v>39</v>
-          </cell>
-          <cell r="E164">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="C165">
-            <v>46</v>
-          </cell>
-          <cell r="D165">
-            <v>37</v>
-          </cell>
-          <cell r="E165">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="C166">
-            <v>43</v>
-          </cell>
-          <cell r="D166">
-            <v>36</v>
-          </cell>
-          <cell r="E166">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="C167">
-            <v>39</v>
-          </cell>
-          <cell r="D167">
-            <v>32</v>
-          </cell>
-          <cell r="E167">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="C168">
-            <v>35</v>
-          </cell>
-          <cell r="D168">
-            <v>30</v>
-          </cell>
-          <cell r="E168">
-            <v>46</v>
           </cell>
         </row>
       </sheetData>
@@ -11516,23 +10307,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -11553,7 +10344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11574,7 +10365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11595,7 +10386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11616,7 +10407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11637,7 +10428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11658,7 +10449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11679,7 +10470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11700,7 +10491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11721,7 +10512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -11742,7 +10533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -11763,7 +10554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -11784,7 +10575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -11805,7 +10596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -11826,7 +10617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -11847,7 +10638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -11868,7 +10659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -11889,7 +10680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -11910,7 +10701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -11931,7 +10722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -11952,7 +10743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -11973,7 +10764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11994,7 +10785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -12015,7 +10806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -12036,7 +10827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -12057,7 +10848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12078,7 +10869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -12099,7 +10890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -12120,7 +10911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -12141,7 +10932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -12162,7 +10953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -12183,7 +10974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -12204,7 +10995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -12225,7 +11016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -12246,7 +11037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -12267,7 +11058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -12288,7 +11079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -12309,7 +11100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -12330,7 +11121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -12351,7 +11142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -12372,7 +11163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -12393,7 +11184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -12414,7 +11205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -12435,7 +11226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -12456,7 +11247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -12477,7 +11268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -12498,7 +11289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -12519,7 +11310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -12540,7 +11331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -12561,7 +11352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -12582,7 +11373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -12603,7 +11394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -12624,7 +11415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -12645,7 +11436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -12666,7 +11457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -12687,7 +11478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -12708,7 +11499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -12729,7 +11520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -12750,7 +11541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -12771,7 +11562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -12792,7 +11583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -12813,7 +11604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -12834,7 +11625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -12855,7 +11646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -12876,7 +11667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -12897,7 +11688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -12918,7 +11709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -12939,7 +11730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -12960,7 +11751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -12981,7 +11772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -13002,7 +11793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -13023,7 +11814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -13044,7 +11835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -13065,7 +11856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -13086,7 +11877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -13107,7 +11898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -13128,7 +11919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -13149,7 +11940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -13170,7 +11961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -13191,7 +11982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -13212,7 +12003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -13233,7 +12024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -13254,7 +12045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -13275,7 +12066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -13296,7 +12087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -13317,7 +12108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -13338,7 +12129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -13359,7 +12150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -13380,7 +12171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -13401,7 +12192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -13422,7 +12213,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -13443,7 +12234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -13464,7 +12255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -13485,7 +12276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -13506,7 +12297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -13527,7 +12318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -13548,7 +12339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5</v>
       </c>
@@ -13569,7 +12360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
@@ -13590,7 +12381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5</v>
       </c>
@@ -13611,7 +12402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5</v>
       </c>
@@ -13632,7 +12423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5</v>
       </c>
@@ -13653,7 +12444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -13674,7 +12465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
@@ -13695,7 +12486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -13716,7 +12507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -13737,7 +12528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -13758,7 +12549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -13779,7 +12570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -13800,7 +12591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -13821,7 +12612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -13842,7 +12633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -13863,7 +12654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -13884,7 +12675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -13905,7 +12696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -13926,7 +12717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -13947,7 +12738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -13968,7 +12759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -13989,7 +12780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -14010,7 +12801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -14031,7 +12822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -14052,7 +12843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6</v>
       </c>
@@ -14073,7 +12864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
@@ -14094,7 +12885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6</v>
       </c>
@@ -14115,7 +12906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6</v>
       </c>
@@ -14136,7 +12927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
@@ -14157,7 +12948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>
@@ -14178,7 +12969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6</v>
       </c>
@@ -14199,7 +12990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6</v>
       </c>
@@ -14220,7 +13011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -14241,7 +13032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6</v>
       </c>
@@ -14262,7 +13053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
@@ -14283,7 +13074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -14304,7 +13095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -14325,7 +13116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -14346,7 +13137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -14367,7 +13158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -14388,7 +13179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -14409,7 +13200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -14430,7 +13221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -14451,7 +13242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -14472,7 +13263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -14493,7 +13284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -14514,7 +13305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -14535,7 +13326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -14556,7 +13347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7</v>
       </c>
@@ -14577,7 +13368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>7</v>
       </c>
@@ -14598,7 +13389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7</v>
       </c>
@@ -14619,7 +13410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>7</v>
       </c>
@@ -14640,7 +13431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7</v>
       </c>
@@ -14661,7 +13452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>7</v>
       </c>
@@ -14682,7 +13473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7</v>
       </c>
@@ -14703,7 +13494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -14724,7 +13515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -14745,7 +13536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>7</v>
       </c>
@@ -14766,7 +13557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7</v>
       </c>
@@ -14787,7 +13578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7</v>
       </c>
@@ -14808,7 +13599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -14829,7 +13620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7</v>
       </c>
@@ -14850,7 +13641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7</v>
       </c>
@@ -14871,7 +13662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7</v>
       </c>
@@ -14892,7 +13683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7</v>
       </c>
@@ -14913,7 +13704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7</v>
       </c>
@@ -14934,7 +13725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7</v>
       </c>
@@ -14955,7 +13746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7</v>
       </c>
@@ -14976,7 +13767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7</v>
       </c>
@@ -14997,7 +13788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>7</v>
       </c>
@@ -15018,7 +13809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -15039,7 +13830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7</v>
       </c>
